--- a/io/launcher/output/series/test6/analysis.xlsx
+++ b/io/launcher/output/series/test6/analysis.xlsx
@@ -489,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,22 +610,22 @@
         </is>
       </c>
       <c r="D4" s="6" t="n">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>6</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" s="6" t="inlineStr">
         <is>
@@ -633,16 +633,16 @@
         </is>
       </c>
       <c r="K4" s="6" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L4" s="6" t="n">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -655,39 +655,39 @@
         </is>
       </c>
       <c r="D5" s="7" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7" t="n">
         <v>6</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J5" s="7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K5" s="7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -700,22 +700,22 @@
         </is>
       </c>
       <c r="D6" s="6" t="n">
-        <v>510</v>
+        <v>14</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7640</v>
+        <v>20</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>510</v>
+        <v>14</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6673</v>
+        <v>20</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>6</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="J6" s="6" t="inlineStr">
         <is>
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="K6" s="6" t="n">
-        <v>510</v>
+        <v>8</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>6673</v>
+        <v>4</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>6</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="D7" s="7" t="n">
-        <v>410</v>
+        <v>14</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>3523</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>410</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>3329</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="I7" s="7" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J7" s="7" t="inlineStr">
         <is>
@@ -768,16 +768,16 @@
         </is>
       </c>
       <c r="K7" s="7" t="n">
-        <v>410</v>
+        <v>9</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>3329</v>
+        <v>8</v>
       </c>
       <c r="M7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="N7" s="7" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -790,39 +790,264 @@
         </is>
       </c>
       <c r="D8" s="6" t="n">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>6</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J8" s="6" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="K8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6" t="n">
-        <v>0</v>
+      <c r="D9" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="J9" s="7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K9" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="L9" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="M9" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="N9" s="7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" s="7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K11" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="N11" s="7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J12" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="J13" s="7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K13" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="M13" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" s="7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
